--- a/Docs/Tiempos REQ 1,2,4,5.xlsx
+++ b/Docs/Tiempos REQ 1,2,4,5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\EDA\Reto1-G01\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C829AC9-D608-4A10-8D62-3DEE4A601092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE811FE5-8659-4D25-8EE4-E74CBA3A7EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
@@ -500,7 +500,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -5462,7 +5463,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5473,7 +5474,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5484,7 +5485,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C0D6BB1E-4928-4857-A0CD-C818D0A5A6F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5495,7 +5496,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B3AE6AD4-6EB7-44ED-A987-5D4A68E7E10B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5506,7 +5507,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8657492" cy="6283569"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5951,7 +5952,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6723,15 +6724,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6ca5caf3e573104b48cd489fb7ebf238">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8ff97dc266d6a6a16fe4e7cad907b60" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -6948,6 +6940,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7058,14 +7059,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3198979-0B27-4D27-8331-28B531282E06}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7080,6 +7073,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Docs/Tiempos REQ 1,2,4,5.xlsx
+++ b/Docs/Tiempos REQ 1,2,4,5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\EDA\Reto1-G01\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE811FE5-8659-4D25-8EE4-E74CBA3A7EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93F5270-3A7D-4631-B3B8-B1944CD34C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos " sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="REQ2" sheetId="9" r:id="rId3"/>
     <sheet name="REQ4" sheetId="11" r:id="rId4"/>
     <sheet name="REQ5" sheetId="12" r:id="rId5"/>
+    <sheet name="Bono" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>Porcentaje de la muestra [pct]</t>
   </si>
@@ -84,6 +85,15 @@
   </si>
   <si>
     <t>Large</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Bono (1900-2000-10000)</t>
+  </si>
+  <si>
+    <t>large</t>
   </si>
 </sst>
 </file>
@@ -160,7 +170,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3235,6 +3270,690 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Tiempos de ejecución Bono</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30724686335834317"/>
+          <c:y val="1.2117376349489305E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos '!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Requerimiento 5 [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos '!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos '!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.04166666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>328.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>682.29166666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1151.0416666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1859.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3078.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3994.7916666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-50B0-4425-B284-9C86645A61C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Datos '!$F$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="poly"/>
+                  <c:order val="2"/>
+                  <c:dispRSqr val="1"/>
+                  <c:dispEq val="1"/>
+                  <c:trendlineLbl>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="en-US"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Datos '!$A$13:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="1">
+                        <c:v>req 1 (1900-2000)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>req 2 (1900-2000)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>req 4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>req 5 (Architecture &amp; Design)</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.00%</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Datos '!$F$13:$F$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-50B0-4425-B284-9C86645A61C6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328118000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> de la muestra [Num. elementos]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328121328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328121328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tiempo de Ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328118000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3395,6 +4114,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4944,6 +5703,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5496,7 +6771,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B3AE6AD4-6EB7-44ED-A987-5D4A68E7E10B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{005C1307-A269-409E-9DA2-A6F05403C853}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5507,7 +6793,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657492" cy="6283569"/>
+    <xdr:ext cx="8654143" cy="6281057"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5540,7 +6826,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656674" cy="6282070"/>
+    <xdr:ext cx="8654143" cy="6281057"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5573,7 +6859,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656674" cy="6282070"/>
+    <xdr:ext cx="8654143" cy="6281057"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5606,7 +6892,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656674" cy="6282070"/>
+    <xdr:ext cx="8654143" cy="6281057"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5635,18 +6921,54 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8654143" cy="6281057"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5466DD-956A-4ABD-8E60-F88C63A42B44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F9" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra " dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G9" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra " dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Requerimiento 1 [ms]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Requerimiento 2 [ms]" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="Requerimiento 4 [ms]" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{6FC8F4B7-6274-4B14-98D8-0E00E479351A}" name="Requerimiento 5 [ms]" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Requerimiento 1 [ms]" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Requerimiento 2 [ms]" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="Requerimiento 4 [ms]" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{6FC8F4B7-6274-4B14-98D8-0E00E479351A}" name="Requerimiento 5 [ms]" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5EBC2ECC-1A75-4BE6-ACD3-41C97731C087}" name="Bono" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(B77:D77)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5949,10 +7271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5965,7 +7287,7 @@
     <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="27.6">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="27.6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5984,8 +7306,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -6009,8 +7334,12 @@
         <f>AVERAGE(B17:D17)</f>
         <v>20.833333333333332</v>
       </c>
+      <c r="G2" s="4">
+        <f>AVERAGE(B77:D77)</f>
+        <v>20.833333333333332</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>0.05</v>
       </c>
@@ -6034,8 +7363,12 @@
         <f>AVERAGE(B24:D24)</f>
         <v>182.29166666666666</v>
       </c>
+      <c r="G3" s="4">
+        <f>AVERAGE(B78:D78)</f>
+        <v>151.04166666666666</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="5">
         <v>0.1</v>
       </c>
@@ -6059,8 +7392,12 @@
         <f>AVERAGE(B32:D32)</f>
         <v>489.58333333333331</v>
       </c>
+      <c r="G4" s="4">
+        <f>AVERAGE(B79:D79)</f>
+        <v>328.125</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>0.2</v>
       </c>
@@ -6084,8 +7421,12 @@
         <f>AVERAGE(B40:D40)</f>
         <v>932.29166666666663</v>
       </c>
+      <c r="G5" s="4">
+        <f>AVERAGE(B80:D80)</f>
+        <v>682.29166666666663</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>0.3</v>
       </c>
@@ -6109,8 +7450,12 @@
         <f>AVERAGE(B48:D48)</f>
         <v>1692.7083333333333</v>
       </c>
+      <c r="G6" s="4">
+        <f>AVERAGE(B81:D81)</f>
+        <v>1151.0416666666667</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="5">
         <v>0.5</v>
       </c>
@@ -6134,8 +7479,12 @@
         <f>AVERAGE(B56:D56)</f>
         <v>2822.9166666666665</v>
       </c>
+      <c r="G7" s="4">
+        <f>AVERAGE(B82:D82)</f>
+        <v>1859.375</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="5">
         <v>0.8</v>
       </c>
@@ -6159,8 +7508,12 @@
         <f>AVERAGE(B65:D65)</f>
         <v>4239.583333333333</v>
       </c>
+      <c r="G8" s="4">
+        <f>AVERAGE(B83:D83)</f>
+        <v>3078.125</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -6184,8 +7537,12 @@
         <f>AVERAGE(B73:D73)</f>
         <v>4890.625</v>
       </c>
+      <c r="G9" s="4">
+        <f>AVERAGE(B84:D84)</f>
+        <v>3994.7916666666665</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" ht="13.8">
+    <row r="12" spans="1:7" s="8" customFormat="1" ht="13.8">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -6195,7 +7552,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
@@ -6203,7 +7560,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -6219,7 +7576,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -6235,7 +7592,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -6715,6 +8072,123 @@
         <v>2812.5</v>
       </c>
     </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="2">
+        <v>31.25</v>
+      </c>
+      <c r="C77" s="2">
+        <v>15.625</v>
+      </c>
+      <c r="D77" s="2">
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="B78" s="2">
+        <v>250</v>
+      </c>
+      <c r="C78" s="2">
+        <v>93.75</v>
+      </c>
+      <c r="D78" s="2">
+        <v>109.375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B79" s="2">
+        <v>593.75</v>
+      </c>
+      <c r="C79" s="2">
+        <v>203.125</v>
+      </c>
+      <c r="D79" s="2">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1203.125</v>
+      </c>
+      <c r="C80" s="2">
+        <v>421.875</v>
+      </c>
+      <c r="D80" s="2">
+        <v>421.875</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2078.125</v>
+      </c>
+      <c r="C81" s="2">
+        <v>703.125</v>
+      </c>
+      <c r="D81" s="2">
+        <v>671.875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B82" s="2">
+        <v>3375</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1109.375</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1093.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B83" s="2">
+        <v>5578.125</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1796.875</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1859.375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="2">
+        <v>7046.875</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2437.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6724,6 +8198,124 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <UserInfo>
+        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arturo Henao Chaparro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan Carlos Marin Morales</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sofia Duque Gomez</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andres Felipe Romero Brand</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan David Diaz Ipuz</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isaac David Bermudez Lara</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kevin Cohen Solano</DisplayName>
+        <AccountId>93</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6ca5caf3e573104b48cd489fb7ebf238">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8ff97dc266d6a6a16fe4e7cad907b60" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -6940,125 +8532,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3198979-0B27-4D27-8331-28B531282E06}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7075,29 +8574,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>